--- a/leanCrm/datanew/physicalAreas/PhysicalSpaces/data/PhysicalSpaces.xlsx
+++ b/leanCrm/datanew/physicalAreas/PhysicalSpaces/data/PhysicalSpaces.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>String</t>
   </si>
@@ -33,24 +33,6 @@
     <t>telExt</t>
   </si>
   <si>
-    <t>Fachada</t>
-  </si>
-  <si>
-    <t>Ingreso Escalera 1 Piso</t>
-  </si>
-  <si>
-    <t>Escalera 1 Piso</t>
-  </si>
-  <si>
-    <t>Pasillo 2 piso</t>
-  </si>
-  <si>
-    <t>placa 2 piso</t>
-  </si>
-  <si>
-    <t>placa 3 piso</t>
-  </si>
-  <si>
     <t>Local L1</t>
   </si>
   <si>
@@ -130,6 +112,27 @@
   </si>
   <si>
     <t>Alcoba Secundaria A202</t>
+  </si>
+  <si>
+    <t>Area Común CL26</t>
+  </si>
+  <si>
+    <t>Fachada CL26</t>
+  </si>
+  <si>
+    <t>Ingreso Escalera 1 Piso CL26</t>
+  </si>
+  <si>
+    <t>Escalera 1 Piso CL26</t>
+  </si>
+  <si>
+    <t>Pasillo 2 piso CL26</t>
+  </si>
+  <si>
+    <t>placa 2 piso CL26</t>
+  </si>
+  <si>
+    <t>placa 3 piso CL26</t>
   </si>
 </sst>
 </file>
@@ -936,13 +939,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -966,167 +971,172 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/leanCrm/datanew/physicalAreas/PhysicalSpaces/data/PhysicalSpaces.xlsx
+++ b/leanCrm/datanew/physicalAreas/PhysicalSpaces/data/PhysicalSpaces.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>String</t>
   </si>
@@ -133,12 +133,18 @@
   </si>
   <si>
     <t>placa 3 piso CL26</t>
+  </si>
+  <si>
+    <t>Balcon A202</t>
+  </si>
+  <si>
+    <t>Balcon A201</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,7 +644,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -939,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,32 +1117,42 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/leanCrm/datanew/physicalAreas/PhysicalSpaces/data/PhysicalSpaces.xlsx
+++ b/leanCrm/datanew/physicalAreas/PhysicalSpaces/data/PhysicalSpaces.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>String</t>
   </si>
@@ -87,12 +87,6 @@
     <t>Cocina A201</t>
   </si>
   <si>
-    <t>Alcoba Principal A201</t>
-  </si>
-  <si>
-    <t>Alcoba Secundaria  A201</t>
-  </si>
-  <si>
     <t>Baño A201</t>
   </si>
   <si>
@@ -108,43 +102,58 @@
     <t>Baño Cocina A202</t>
   </si>
   <si>
-    <t>Alcoba Principal A202</t>
-  </si>
-  <si>
-    <t>Alcoba Secundaria A202</t>
-  </si>
-  <si>
-    <t>Area Común CL26</t>
-  </si>
-  <si>
-    <t>Fachada CL26</t>
-  </si>
-  <si>
-    <t>Ingreso Escalera 1 Piso CL26</t>
-  </si>
-  <si>
-    <t>Escalera 1 Piso CL26</t>
-  </si>
-  <si>
-    <t>Pasillo 2 piso CL26</t>
-  </si>
-  <si>
-    <t>placa 2 piso CL26</t>
-  </si>
-  <si>
-    <t>placa 3 piso CL26</t>
-  </si>
-  <si>
     <t>Balcon A202</t>
   </si>
   <si>
     <t>Balcon A201</t>
+  </si>
+  <si>
+    <t>Area Común CR23</t>
+  </si>
+  <si>
+    <t>Fachada CR23</t>
+  </si>
+  <si>
+    <t>Ingreso Escalera 1 Piso CR23</t>
+  </si>
+  <si>
+    <t>Escalera 1 Piso CR23</t>
+  </si>
+  <si>
+    <t>Pasillo 2 piso CR23</t>
+  </si>
+  <si>
+    <t>Garaje L1</t>
+  </si>
+  <si>
+    <t>Pasillo A201</t>
+  </si>
+  <si>
+    <t>Alcoba1 A201</t>
+  </si>
+  <si>
+    <t>Alcoba2 A201</t>
+  </si>
+  <si>
+    <t>Pasillo A202</t>
+  </si>
+  <si>
+    <t>Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Placa 2 piso CR23</t>
+  </si>
+  <si>
+    <t>Placa 3 piso CR23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -644,7 +653,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -945,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,17 +986,17 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -997,137 +1006,137 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -1137,22 +1146,37 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
